--- a/Bank-Credit-Card-Default/Scalability/resHibrid_BankClientsDefault_1core.xlsx
+++ b/Bank-Credit-Card-Default/Scalability/resHibrid_BankClientsDefault_1core.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Egyetem Phd\Tézis\Default of credit card clients DataSet\ToGit\Scalability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54733879-D291-43D7-8458-B2F371BC594C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDDBD33-9A70-4683-99B5-0202E38F272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HybridParallelSummary" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="41">
   <si>
     <t>Legjobb egyed</t>
   </si>
@@ -224,20 +224,47 @@
   <si>
     <t>Maximum / Rnegyzet</t>
   </si>
+  <si>
+    <t>Parallelable Runtime (min)</t>
+  </si>
+  <si>
+    <t>Párhuzamosítható futásidő (perc)</t>
+  </si>
+  <si>
+    <t>Párhuzamosítható rész aránya</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>95% CI Alsó</t>
+  </si>
+  <si>
+    <t>95% CI Felső</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,12 +313,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -301,6 +328,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -320,7 +351,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kovács László" refreshedDate="44417.537431597222" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="100" xr:uid="{797B98A7-4FD3-4CF1-ABFD-A2A60B2758DF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kovács László" refreshedDate="44418.593857523148" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="100" xr:uid="{797B98A7-4FD3-4CF1-ABFD-A2A60B2758DF}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G101" sheet="resHibrid_Default.csv"/>
   </cacheSource>
@@ -365,7 +396,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="Runtime (min)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="28.801963361524937" maxValue="47.747920435046488"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="88.572046216182528" maxValue="130.43935306186623"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -385,7 +416,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="47.269390799696936"/>
+    <n v="117.67076158477302"/>
   </r>
   <r>
     <x v="0"/>
@@ -394,7 +425,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="45.107937487895057"/>
+    <n v="112.79596234007457"/>
   </r>
   <r>
     <x v="0"/>
@@ -403,7 +434,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="40.127001799223891"/>
+    <n v="114.87216293187187"/>
   </r>
   <r>
     <x v="0"/>
@@ -412,7 +443,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="40.622328992628695"/>
+    <n v="103.03483012340439"/>
   </r>
   <r>
     <x v="0"/>
@@ -421,7 +452,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="40.618117762946689"/>
+    <n v="92.370590219607408"/>
   </r>
   <r>
     <x v="1"/>
@@ -430,7 +461,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="44.639402547172878"/>
+    <n v="115.14750457166775"/>
   </r>
   <r>
     <x v="1"/>
@@ -439,7 +470,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="29.120070565536032"/>
+    <n v="127.5683552735434"/>
   </r>
   <r>
     <x v="1"/>
@@ -448,7 +479,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="41.206422046024272"/>
+    <n v="98.621221005845129"/>
   </r>
   <r>
     <x v="1"/>
@@ -457,7 +488,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="37.528208486752817"/>
+    <n v="94.933203103654805"/>
   </r>
   <r>
     <x v="1"/>
@@ -466,7 +497,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="31.240422487775053"/>
+    <n v="89.034968874792852"/>
   </r>
   <r>
     <x v="2"/>
@@ -475,7 +506,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="29.787650325450816"/>
+    <n v="127.07829528887328"/>
   </r>
   <r>
     <x v="2"/>
@@ -484,7 +515,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="38.394581506720158"/>
+    <n v="125.68551429163412"/>
   </r>
   <r>
     <x v="2"/>
@@ -493,7 +524,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="33.688459804105719"/>
+    <n v="103.76001905749564"/>
   </r>
   <r>
     <x v="2"/>
@@ -502,7 +533,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="39.629848331866356"/>
+    <n v="95.508916391797044"/>
   </r>
   <r>
     <x v="2"/>
@@ -511,7 +542,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="36.178542155071909"/>
+    <n v="104.10735379969418"/>
   </r>
   <r>
     <x v="3"/>
@@ -520,7 +551,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="41.597904336007836"/>
+    <n v="126.40907166052648"/>
   </r>
   <r>
     <x v="3"/>
@@ -529,7 +560,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="34.809777914253679"/>
+    <n v="125.95854922958063"/>
   </r>
   <r>
     <x v="3"/>
@@ -538,7 +569,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="43.01626548124333"/>
+    <n v="125.01251906390368"/>
   </r>
   <r>
     <x v="3"/>
@@ -547,7 +578,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="41.64027284846464"/>
+    <n v="126.2819927254728"/>
   </r>
   <r>
     <x v="3"/>
@@ -556,7 +587,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="42.644270803436356"/>
+    <n v="125.29992983047714"/>
   </r>
   <r>
     <x v="4"/>
@@ -565,7 +596,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="42.243558371716205"/>
+    <n v="98.782982252687219"/>
   </r>
   <r>
     <x v="4"/>
@@ -574,7 +605,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="46.522004482663903"/>
+    <n v="96.254199494229141"/>
   </r>
   <r>
     <x v="4"/>
@@ -583,7 +614,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="40.573000993886538"/>
+    <n v="110.94316029592264"/>
   </r>
   <r>
     <x v="4"/>
@@ -592,7 +623,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="36.174201140474572"/>
+    <n v="121.11741720321565"/>
   </r>
   <r>
     <x v="4"/>
@@ -601,7 +632,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="29.733822472909392"/>
+    <n v="102.60005437673567"/>
   </r>
   <r>
     <x v="5"/>
@@ -610,7 +641,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="38.260928608009422"/>
+    <n v="120.29933203392022"/>
   </r>
   <r>
     <x v="5"/>
@@ -619,7 +650,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="40.66629129158688"/>
+    <n v="109.59510446233057"/>
   </r>
   <r>
     <x v="5"/>
@@ -628,7 +659,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="45.741949364533298"/>
+    <n v="114.73639745666571"/>
   </r>
   <r>
     <x v="5"/>
@@ -637,7 +668,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="28.801963361524937"/>
+    <n v="93.828868846267056"/>
   </r>
   <r>
     <x v="5"/>
@@ -646,7 +677,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="40.907206825089325"/>
+    <n v="125.78473127354549"/>
   </r>
   <r>
     <x v="6"/>
@@ -655,7 +686,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="40.467320439925942"/>
+    <n v="102.47945109291315"/>
   </r>
   <r>
     <x v="6"/>
@@ -664,7 +695,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="41.297786021894687"/>
+    <n v="90.05151892224967"/>
   </r>
   <r>
     <x v="6"/>
@@ -673,7 +704,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="29.811669330253022"/>
+    <n v="118.08656142070251"/>
   </r>
   <r>
     <x v="6"/>
@@ -682,7 +713,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="43.000070781053296"/>
+    <n v="105.30351775042888"/>
   </r>
   <r>
     <x v="6"/>
@@ -691,7 +722,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="30.287526045546056"/>
+    <n v="101.73662118375772"/>
   </r>
   <r>
     <x v="7"/>
@@ -700,7 +731,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="39.117890133167883"/>
+    <n v="104.77296118785958"/>
   </r>
   <r>
     <x v="7"/>
@@ -709,7 +740,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="37.94265694745431"/>
+    <n v="92.105006597546193"/>
   </r>
   <r>
     <x v="7"/>
@@ -718,7 +749,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="44.490889757821044"/>
+    <n v="120.76071340244566"/>
   </r>
   <r>
     <x v="7"/>
@@ -727,7 +758,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="33.4345624287729"/>
+    <n v="108.64975769960432"/>
   </r>
   <r>
     <x v="7"/>
@@ -736,7 +767,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="30.232604654783966"/>
+    <n v="116.53599889540664"/>
   </r>
   <r>
     <x v="8"/>
@@ -745,7 +776,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="37.300384514028408"/>
+    <n v="92.188470944684738"/>
   </r>
   <r>
     <x v="8"/>
@@ -754,7 +785,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="33.489261926282168"/>
+    <n v="129.32167686053793"/>
   </r>
   <r>
     <x v="8"/>
@@ -763,7 +794,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="32.092511268815031"/>
+    <n v="121.75891843850201"/>
   </r>
   <r>
     <x v="8"/>
@@ -772,7 +803,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="39.392003859967133"/>
+    <n v="111.8195888355044"/>
   </r>
   <r>
     <x v="8"/>
@@ -781,7 +812,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="29.1682033272605"/>
+    <n v="105.45270228184934"/>
   </r>
   <r>
     <x v="9"/>
@@ -790,7 +821,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="39.411440793027978"/>
+    <n v="125.38992796811641"/>
   </r>
   <r>
     <x v="9"/>
@@ -799,7 +830,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="47.409741722878877"/>
+    <n v="105.46527135699742"/>
   </r>
   <r>
     <x v="9"/>
@@ -808,7 +839,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="42.136218281913898"/>
+    <n v="97.919300167644778"/>
   </r>
   <r>
     <x v="9"/>
@@ -817,7 +848,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="40.234610919338181"/>
+    <n v="97.965131924161128"/>
   </r>
   <r>
     <x v="9"/>
@@ -826,7 +857,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="37.327998575439317"/>
+    <n v="116.91185018079599"/>
   </r>
   <r>
     <x v="10"/>
@@ -835,7 +866,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="40.549988385196691"/>
+    <n v="113.20145483471367"/>
   </r>
   <r>
     <x v="10"/>
@@ -844,7 +875,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="46.175818689082853"/>
+    <n v="129.4204023711732"/>
   </r>
   <r>
     <x v="10"/>
@@ -853,7 +884,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="29.789154488989386"/>
+    <n v="101.00112831997728"/>
   </r>
   <r>
     <x v="10"/>
@@ -862,7 +893,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="33.349318706650017"/>
+    <n v="123.26217742237679"/>
   </r>
   <r>
     <x v="10"/>
@@ -871,7 +902,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="42.658131991958307"/>
+    <n v="129.61243842917585"/>
   </r>
   <r>
     <x v="11"/>
@@ -880,7 +911,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="46.311672417717844"/>
+    <n v="123.39050744923111"/>
   </r>
   <r>
     <x v="11"/>
@@ -889,7 +920,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="34.069900186146647"/>
+    <n v="93.718042339690598"/>
   </r>
   <r>
     <x v="11"/>
@@ -898,7 +929,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="37.822440487955625"/>
+    <n v="129.63533084076042"/>
   </r>
   <r>
     <x v="11"/>
@@ -907,7 +938,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="32.061890044751635"/>
+    <n v="93.669034569572887"/>
   </r>
   <r>
     <x v="11"/>
@@ -916,7 +947,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="30.351461983497884"/>
+    <n v="118.89855593044895"/>
   </r>
   <r>
     <x v="12"/>
@@ -925,7 +956,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="46.634138215477897"/>
+    <n v="91.430762648691527"/>
   </r>
   <r>
     <x v="12"/>
@@ -934,7 +965,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="33.65803044810923"/>
+    <n v="119.18554082726267"/>
   </r>
   <r>
     <x v="12"/>
@@ -943,7 +974,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="44.10772917857124"/>
+    <n v="89.174522891120745"/>
   </r>
   <r>
     <x v="12"/>
@@ -952,7 +983,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="47.268412057375706"/>
+    <n v="88.572046216182528"/>
   </r>
   <r>
     <x v="12"/>
@@ -961,7 +992,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="32.984149455890687"/>
+    <n v="99.842980025290132"/>
   </r>
   <r>
     <x v="13"/>
@@ -970,7 +1001,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="41.656917717605992"/>
+    <n v="126.14981421197237"/>
   </r>
   <r>
     <x v="13"/>
@@ -979,7 +1010,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="29.838322046566351"/>
+    <n v="116.99973339020313"/>
   </r>
   <r>
     <x v="13"/>
@@ -988,7 +1019,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="30.705192597856108"/>
+    <n v="104.93545960766718"/>
   </r>
   <r>
     <x v="13"/>
@@ -997,7 +1028,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="38.103533397259511"/>
+    <n v="92.571875753498944"/>
   </r>
   <r>
     <x v="13"/>
@@ -1006,7 +1037,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="47.747920435046488"/>
+    <n v="126.14516122316238"/>
   </r>
   <r>
     <x v="14"/>
@@ -1015,7 +1046,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="39.969434811536487"/>
+    <n v="120.90108696566635"/>
   </r>
   <r>
     <x v="14"/>
@@ -1024,7 +1055,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="37.178703377019581"/>
+    <n v="97.942554108083215"/>
   </r>
   <r>
     <x v="14"/>
@@ -1033,7 +1064,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="47.538002848314605"/>
+    <n v="97.097329448505832"/>
   </r>
   <r>
     <x v="14"/>
@@ -1042,7 +1073,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="35.434340687618132"/>
+    <n v="122.44799113667989"/>
   </r>
   <r>
     <x v="14"/>
@@ -1051,7 +1082,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="43.042734684616129"/>
+    <n v="92.169112532787366"/>
   </r>
   <r>
     <x v="15"/>
@@ -1060,7 +1091,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="37.649466515818204"/>
+    <n v="117.59851749664317"/>
   </r>
   <r>
     <x v="15"/>
@@ -1069,7 +1100,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="42.797560125962747"/>
+    <n v="104.78904796166995"/>
   </r>
   <r>
     <x v="15"/>
@@ -1078,7 +1109,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="31.003286904924728"/>
+    <n v="121.50731730487854"/>
   </r>
   <r>
     <x v="15"/>
@@ -1087,7 +1118,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="33.713802298336184"/>
+    <n v="104.4588398726174"/>
   </r>
   <r>
     <x v="15"/>
@@ -1096,7 +1127,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="31.164737129656658"/>
+    <n v="92.142766591078114"/>
   </r>
   <r>
     <x v="16"/>
@@ -1105,7 +1136,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="36.29813423808384"/>
+    <n v="114.85842872383461"/>
   </r>
   <r>
     <x v="16"/>
@@ -1114,7 +1145,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="42.769448552168868"/>
+    <n v="130.39564712244083"/>
   </r>
   <r>
     <x v="16"/>
@@ -1123,7 +1154,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="36.426819577500261"/>
+    <n v="126.52918584692787"/>
   </r>
   <r>
     <x v="16"/>
@@ -1132,7 +1163,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="29.176124129550157"/>
+    <n v="107.01663339692681"/>
   </r>
   <r>
     <x v="16"/>
@@ -1141,7 +1172,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="29.574507804335454"/>
+    <n v="106.45476490039135"/>
   </r>
   <r>
     <x v="17"/>
@@ -1150,7 +1181,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="41.199684770861893"/>
+    <n v="109.43564376111587"/>
   </r>
   <r>
     <x v="17"/>
@@ -1159,7 +1190,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32.638691212837415"/>
+    <n v="93.831464467001567"/>
   </r>
   <r>
     <x v="17"/>
@@ -1168,7 +1199,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="31.046968686201001"/>
+    <n v="96.551632343140525"/>
   </r>
   <r>
     <x v="17"/>
@@ -1177,7 +1208,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="36.669020098505356"/>
+    <n v="127.87548044037786"/>
   </r>
   <r>
     <x v="17"/>
@@ -1186,7 +1217,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="44.027193330628918"/>
+    <n v="100.71784681611848"/>
   </r>
   <r>
     <x v="18"/>
@@ -1195,7 +1226,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="30.517836843987993"/>
+    <n v="93.278748684087503"/>
   </r>
   <r>
     <x v="18"/>
@@ -1204,7 +1235,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="44.615960142878919"/>
+    <n v="119.87421716286764"/>
   </r>
   <r>
     <x v="18"/>
@@ -1213,7 +1244,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="42.908987392136069"/>
+    <n v="115.49533999005718"/>
   </r>
   <r>
     <x v="18"/>
@@ -1222,7 +1253,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="36.840585406443147"/>
+    <n v="94.584373079120894"/>
   </r>
   <r>
     <x v="18"/>
@@ -1231,7 +1262,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="46.219865512432932"/>
+    <n v="93.783535887681211"/>
   </r>
   <r>
     <x v="19"/>
@@ -1240,7 +1271,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="45.241927615183528"/>
+    <n v="102.65731896109024"/>
   </r>
   <r>
     <x v="19"/>
@@ -1249,7 +1280,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="47.049546777797232"/>
+    <n v="120.61577204883363"/>
   </r>
   <r>
     <x v="19"/>
@@ -1258,7 +1289,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="37.063964610950144"/>
+    <n v="121.03512413363561"/>
   </r>
   <r>
     <x v="19"/>
@@ -1267,7 +1298,7 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="38.142571706311116"/>
+    <n v="121.13538002111787"/>
   </r>
   <r>
     <x v="19"/>
@@ -1276,14 +1307,14 @@
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="40.903477020587175"/>
+    <n v="130.43935306186623"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2769C5DC-6704-4FE9-B61B-62D131F321D8}" name="Kimutatás2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Értékek" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="K1:L21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2769C5DC-6704-4FE9-B61B-62D131F321D8}" name="Kimutatás2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Értékek" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L1:M21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="21">
@@ -1663,19 +1694,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF5EBA6-B772-4F5B-BF1F-3F4B6F701729}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1688,8 +1722,14 @@
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1698,15 +1738,23 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(A2,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A2,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20878425225269301</v>
       </c>
       <c r="D2">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A2,'resHibrid_Default.csv'!G:G)</f>
         <v>540.74430719973122</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A2,'resHibrid_Default.csv'!H:H)</f>
+        <v>517.38835058317432</v>
+      </c>
+      <c r="F2">
+        <f>E2/D2</f>
+        <v>0.95680776236460674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1715,18 +1763,26 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(A3,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A3,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20882486418169</v>
       </c>
       <c r="D3">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A3,'resHibrid_Default.csv'!G:G)</f>
         <v>525.30525282950396</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A3,'resHibrid_Default.csv'!H:H)</f>
+        <v>516.20916370166185</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">E3/D3</f>
+        <v>0.98268418395048029</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1735,32 +1791,40 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(A4,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A4,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.13986947616203299</v>
       </c>
       <c r="D4">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A4,'resHibrid_Default.csv'!G:G)</f>
         <v>556.14009882949426</v>
       </c>
-      <c r="H4" t="s">
+      <c r="E4">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A4,'resHibrid_Default.csv'!H:H)</f>
+        <v>548.48235620593834</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.98623055118724012</v>
+      </c>
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <f>AVERAGE(D2:D21)</f>
         <v>550.9103169872667</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="K4">
-        <f>I4/60</f>
+      <c r="M4">
+        <f>K4/60</f>
         <v>9.1818386164544457</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1769,32 +1833,40 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(A5,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A5,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.119865888048659</v>
       </c>
       <c r="D5">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A5,'resHibrid_Default.csv'!G:G)</f>
         <v>628.96206250996079</v>
       </c>
-      <c r="H5" t="s">
+      <c r="E5">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A5,'resHibrid_Default.csv'!H:H)</f>
+        <v>606.15529237742453</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.96373903691182472</v>
+      </c>
+      <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <f>_xlfn.STDEV.S(D2:D21)</f>
         <v>32.875859312736544</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="K5">
-        <f>I5/60</f>
+      <c r="M5">
+        <f>K5/60</f>
         <v>0.54793098854560907</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1803,15 +1875,23 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(A6,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A6,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.19143940265307899</v>
       </c>
       <c r="D6">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A6,'resHibrid_Default.csv'!G:G)</f>
         <v>529.69781362279036</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A6,'resHibrid_Default.csv'!H:H)</f>
+        <v>510.94760870927712</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.96460207229236239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1820,15 +1900,23 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1</v>
       </c>
       <c r="C7">
-        <f>VLOOKUP(A7,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A7,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20878425225269301</v>
       </c>
       <c r="D7">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A7,'resHibrid_Default.csv'!G:G)</f>
         <v>564.24443407272906</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A7,'resHibrid_Default.csv'!H:H)</f>
+        <v>552.82787700423899</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.97976664654698475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1837,22 +1925,30 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="C8">
-        <f>VLOOKUP(A8,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A8,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.19143940265307899</v>
       </c>
       <c r="D8">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A8,'resHibrid_Default.csv'!G:G)</f>
         <v>517.65767037005196</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A8,'resHibrid_Default.csv'!H:H)</f>
+        <v>505.11326184751562</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.97576698030269915</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="4">
+      <c r="M8" s="4">
         <f>COUNTIF(C2:C21,"&lt;0,19")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1861,22 +1957,30 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1</v>
       </c>
       <c r="C9">
-        <f>VLOOKUP(A9,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A9,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20878425225269301</v>
       </c>
       <c r="D9">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A9,'resHibrid_Default.csv'!G:G)</f>
         <v>542.82443778286233</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A9,'resHibrid_Default.csv'!H:H)</f>
+        <v>530.86067941692068</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.97796016993117152</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <f>COUNTIF(C2:C21,"&lt;0,19")/COUNT(C2:C21)</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1885,15 +1989,23 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0</v>
       </c>
       <c r="C10">
-        <f>VLOOKUP(A10,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A10,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20609965681702899</v>
       </c>
       <c r="D10">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A10,'resHibrid_Default.csv'!G:G)</f>
         <v>560.54135736107844</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A10,'resHibrid_Default.csv'!H:H)</f>
+        <v>541.69084904942702</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.96637088759980883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1902,15 +2014,23 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1</v>
       </c>
       <c r="C11">
-        <f>VLOOKUP(A11,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A11,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20878425225269301</v>
       </c>
       <c r="D11">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A11,'resHibrid_Default.csv'!G:G)</f>
         <v>543.6514815977157</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A11,'resHibrid_Default.csv'!H:H)</f>
+        <v>522.68705744961471</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.96143775036446244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1919,15 +2039,26 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0</v>
       </c>
       <c r="C12">
-        <f>VLOOKUP(A12,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A12,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>9.6057226291276193E-2</v>
       </c>
       <c r="D12">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A12,'resHibrid_Default.csv'!G:G)</f>
         <v>596.4976013774168</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A12,'resHibrid_Default.csv'!H:H)</f>
+        <v>583.5413202171959</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.97827940777917199</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1936,15 +2067,30 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="C13">
-        <f>VLOOKUP(A13,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A13,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.19143940265307899</v>
       </c>
       <c r="D13">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A13,'resHibrid_Default.csv'!G:G)</f>
         <v>559.31147112970405</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A13,'resHibrid_Default.csv'!H:H)</f>
+        <v>543.41901943975586</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.9715856861332588</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="9">
+        <f>AVERAGE(F:F)</f>
+        <v>0.97156714483967321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1953,15 +2099,30 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="C14">
-        <f>VLOOKUP(A14,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A14,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.19143940265307899</v>
       </c>
       <c r="D14">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A14,'resHibrid_Default.csv'!G:G)</f>
         <v>488.20585260854762</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A14,'resHibrid_Default.csv'!H:H)</f>
+        <v>470.98835138427069</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.9647331117964244</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="9">
+        <f>_xlfn.STDEV.S(F:F)</f>
+        <v>7.7269732719655254E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1970,15 +2131,30 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0</v>
       </c>
       <c r="C15">
-        <f>VLOOKUP(A15,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A15,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20609965681702899</v>
       </c>
       <c r="D15">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A15,'resHibrid_Default.csv'!G:G)</f>
         <v>566.80204418650408</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A15,'resHibrid_Default.csv'!H:H)</f>
+        <v>554.34251782376919</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.97801785210457859</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <f>COUNT(F:F)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1987,15 +2163,23 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1</v>
       </c>
       <c r="C16">
-        <f>VLOOKUP(A16,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A16,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20878425225269301</v>
       </c>
       <c r="D16">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A16,'resHibrid_Default.csv'!G:G)</f>
         <v>530.55807419172265</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A16,'resHibrid_Default.csv'!H:H)</f>
+        <v>511.94644830095956</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.964920662230771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2004,15 +2188,30 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
       </c>
       <c r="C17">
-        <f>VLOOKUP(A17,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A17,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.19143940265307899</v>
       </c>
       <c r="D17">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A17,'resHibrid_Default.csv'!G:G)</f>
         <v>540.49648922688721</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A17,'resHibrid_Default.csv'!H:H)</f>
+        <v>522.51109084703057</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.96672430119651198</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="3">
+        <f>M13-M14/SQRT(M15)*_xlfn.T.INV(1-0.05/2,M15-1)</f>
+        <v>0.96795081003037164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2021,15 +2220,30 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0</v>
       </c>
       <c r="C18">
-        <f>VLOOKUP(A18,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A18,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20609965681702899</v>
       </c>
       <c r="D18">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A18,'resHibrid_Default.csv'!G:G)</f>
         <v>585.25465999052153</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A18,'resHibrid_Default.csv'!H:H)</f>
+        <v>568.52992719257225</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.97142315313094618</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="3">
+        <f>M13+M14/SQRT(M15)*_xlfn.T.INV(1-0.05/2,M15-1)</f>
+        <v>0.97518347964897478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2038,15 +2252,23 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1</v>
       </c>
       <c r="C19">
-        <f>VLOOKUP(A19,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A19,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20878425225269301</v>
       </c>
       <c r="D19">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A19,'resHibrid_Default.csv'!G:G)</f>
         <v>528.4120678277543</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A19,'resHibrid_Default.csv'!H:H)</f>
+        <v>514.6627821197236</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.97397999299192284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2055,15 +2277,23 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0</v>
       </c>
       <c r="C20">
-        <f>VLOOKUP(A20,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A20,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20882486418169</v>
       </c>
       <c r="D20">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A20,'resHibrid_Default.csv'!G:G)</f>
         <v>517.01621480381448</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A20,'resHibrid_Default.csv'!H:H)</f>
+        <v>503.49231187029159</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.97384240078687934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2072,12 +2302,20 @@
         <v>1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1</v>
       </c>
       <c r="C21">
-        <f>VLOOKUP(A21,'resHibrid_Default.csv'!$K$2:$L$21,2,0)</f>
+        <f>VLOOKUP(A21,'resHibrid_Default.csv'!$L$2:$M$21,2,0)</f>
         <v>0.20878425225269301</v>
       </c>
       <c r="D21">
         <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A21,'resHibrid_Default.csv'!G:G)</f>
         <v>595.88294822654348</v>
+      </c>
+      <c r="E21">
+        <f>SUMIF('resHibrid_Default.csv'!A:A,HybridParallelSummary!A21,'resHibrid_Default.csv'!H:H)</f>
+        <v>579.47846179429905</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.97247028719135664</v>
       </c>
     </row>
   </sheetData>
@@ -2087,17 +2325,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCFCB4E-4D71-4A33-BFEB-508188700973}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2119,14 +2357,17 @@
       <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2148,14 +2389,17 @@
       <c r="G2">
         <v>117.67076158477302</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="H2">
+        <v>112.47120645768662</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
         <v>0.20878425225269301</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2177,14 +2421,17 @@
       <c r="G3">
         <v>112.79596234007457</v>
       </c>
-      <c r="K3">
+      <c r="H3">
+        <v>107.00380889510474</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>0.20882486418169</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2206,14 +2453,17 @@
       <c r="G4">
         <v>114.87216293187187</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="H4">
+        <v>109.1147840095136</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6">
         <v>0.13986947616203299</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2235,14 +2485,17 @@
       <c r="G5">
         <v>103.03483012340439</v>
       </c>
-      <c r="K5">
+      <c r="H5">
+        <v>100.34295815399281</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>0.119865888048659</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2264,14 +2517,17 @@
       <c r="G6">
         <v>92.370590219607408</v>
       </c>
-      <c r="K6">
+      <c r="H6">
+        <v>88.45559306687656</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>0.19143940265307899</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2293,14 +2549,17 @@
       <c r="G7">
         <v>115.14750457166775</v>
       </c>
-      <c r="K7">
+      <c r="H7">
+        <v>114.24128842213794</v>
+      </c>
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>0.20878425225269301</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2322,14 +2581,17 @@
       <c r="G8">
         <v>127.5683552735434</v>
       </c>
-      <c r="K8">
+      <c r="H8">
+        <v>125.13136466447357</v>
+      </c>
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>0.19143940265307899</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2351,14 +2613,17 @@
       <c r="G9">
         <v>98.621221005845129</v>
       </c>
-      <c r="K9">
+      <c r="H9">
+        <v>97.114986097211258</v>
+      </c>
+      <c r="L9">
         <v>8</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>0.20878425225269301</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2380,14 +2645,17 @@
       <c r="G10">
         <v>94.933203103654805</v>
       </c>
-      <c r="K10">
+      <c r="H10">
+        <v>91.903855717931165</v>
+      </c>
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <v>0.20609965681702899</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2409,14 +2677,17 @@
       <c r="G11">
         <v>89.034968874792852</v>
       </c>
-      <c r="K11">
+      <c r="H11">
+        <v>87.817668799907935</v>
+      </c>
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>0.20878425225269301</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2438,14 +2709,17 @@
       <c r="G12">
         <v>127.07829528887328</v>
       </c>
-      <c r="K12">
+      <c r="H12">
+        <v>125.58340596725793</v>
+      </c>
+      <c r="L12">
         <v>11</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <v>9.6057226291276193E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2467,14 +2741,17 @@
       <c r="G13">
         <v>125.68551429163412</v>
       </c>
-      <c r="K13">
+      <c r="H13">
+        <v>125.46897829166051</v>
+      </c>
+      <c r="L13">
         <v>12</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>0.19143940265307899</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2496,14 +2773,17 @@
       <c r="G14">
         <v>103.76001905749564</v>
       </c>
-      <c r="K14">
+      <c r="H14">
+        <v>103.32224696573462</v>
+      </c>
+      <c r="L14">
         <v>13</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>0.19143940265307899</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2525,14 +2805,17 @@
       <c r="G15">
         <v>95.508916391797044</v>
       </c>
-      <c r="K15">
+      <c r="H15">
+        <v>91.262764287988233</v>
+      </c>
+      <c r="L15">
         <v>14</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>0.20609965681702899</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2554,14 +2837,17 @@
       <c r="G16">
         <v>104.10735379969418</v>
       </c>
-      <c r="K16">
+      <c r="H16">
+        <v>102.84496069329701</v>
+      </c>
+      <c r="L16">
         <v>15</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>0.20878425225269301</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2583,14 +2869,17 @@
       <c r="G17">
         <v>126.40907166052648</v>
       </c>
-      <c r="K17">
+      <c r="H17">
+        <v>124.21769728465146</v>
+      </c>
+      <c r="L17">
         <v>16</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>0.19143940265307899</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2612,14 +2901,17 @@
       <c r="G18">
         <v>125.95854922958063</v>
       </c>
-      <c r="K18">
+      <c r="H18">
+        <v>119.90464898756366</v>
+      </c>
+      <c r="L18">
         <v>17</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <v>0.20609965681702899</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2641,14 +2933,17 @@
       <c r="G19">
         <v>125.01251906390368</v>
       </c>
-      <c r="K19">
+      <c r="H19">
+        <v>120.86150508582304</v>
+      </c>
+      <c r="L19">
         <v>18</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="6">
         <v>0.20878425225269301</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2670,14 +2965,17 @@
       <c r="G20">
         <v>126.2819927254728</v>
       </c>
-      <c r="K20">
+      <c r="H20">
+        <v>121.98325287647449</v>
+      </c>
+      <c r="L20">
         <v>19</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>0.20882486418169</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2699,14 +2997,17 @@
       <c r="G21">
         <v>125.29992983047714</v>
       </c>
-      <c r="K21">
+      <c r="H21">
+        <v>119.18818814291195</v>
+      </c>
+      <c r="L21">
         <v>20</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="6">
         <v>0.20878425225269301</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2728,8 +3029,11 @@
       <c r="G22">
         <v>98.782982252687219</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>93.656289428734325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2751,8 +3055,11 @@
       <c r="G23">
         <v>96.254199494229141</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>95.769005411464008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2774,8 +3081,11 @@
       <c r="G24">
         <v>110.94316029592264</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>107.26091415634804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2797,8 +3107,11 @@
       <c r="G25">
         <v>121.11741720321565</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>116.58034903929861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2820,8 +3133,11 @@
       <c r="G26">
         <v>102.60005437673567</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>97.681050673432168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -2843,8 +3159,11 @@
       <c r="G27">
         <v>120.29933203392022</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>118.09346060608758</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2866,8 +3185,11 @@
       <c r="G28">
         <v>109.59510446233057</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>105.90508773156606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2889,8 +3211,11 @@
       <c r="G29">
         <v>114.73639745666571</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>111.18168555941733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2912,8 +3237,11 @@
       <c r="G30">
         <v>93.828868846267056</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>93.189767077495887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2935,8 +3263,11 @@
       <c r="G31">
         <v>125.78473127354549</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>124.45787602967214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2958,8 +3289,11 @@
       <c r="G32">
         <v>102.47945109291315</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>99.744411610342794</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -2981,8 +3315,11 @@
       <c r="G33">
         <v>90.05151892224967</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>86.785220535158004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -3004,8 +3341,11 @@
       <c r="G34">
         <v>118.08656142070251</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>115.8034211749916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -3027,8 +3367,11 @@
       <c r="G35">
         <v>105.30351775042888</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>102.24913734807953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
@@ -3050,8 +3393,11 @@
       <c r="G36">
         <v>101.73662118375772</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>100.53107117894372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -3073,8 +3419,11 @@
       <c r="G37">
         <v>104.77296118785958</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>102.82106801245365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -3096,8 +3445,11 @@
       <c r="G38">
         <v>92.105006597546193</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>90.6395584224841</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -3119,8 +3471,11 @@
       <c r="G39">
         <v>120.76071340244566</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>116.54336484527499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3142,8 +3497,11 @@
       <c r="G40">
         <v>108.64975769960432</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>106.57437181777662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -3165,8 +3523,11 @@
       <c r="G41">
         <v>116.53599889540664</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>114.28231631893124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -3188,8 +3549,11 @@
       <c r="G42">
         <v>92.188470944684738</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>87.888550660705988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -3211,8 +3575,11 @@
       <c r="G43">
         <v>129.32167686053793</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>126.58214633394616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -3234,8 +3601,11 @@
       <c r="G44">
         <v>121.75891843850201</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>118.18615032731508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -3257,8 +3627,11 @@
       <c r="G45">
         <v>111.8195888355044</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>108.38879680174887</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -3280,8 +3653,11 @@
       <c r="G46">
         <v>105.45270228184934</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>100.64520492571086</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -3303,8 +3679,11 @@
       <c r="G47">
         <v>125.38992796811641</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>119.2848448826245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10</v>
       </c>
@@ -3326,8 +3705,11 @@
       <c r="G48">
         <v>105.46527135699742</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>100.62236244707961</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10</v>
       </c>
@@ -3349,8 +3731,11 @@
       <c r="G49">
         <v>97.919300167644778</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>93.292339227401897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -3372,8 +3757,11 @@
       <c r="G50">
         <v>97.965131924161128</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>93.23343495229912</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -3395,8 +3783,11 @@
       <c r="G51">
         <v>116.91185018079599</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>116.25407594020947</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -3418,8 +3809,11 @@
       <c r="G52">
         <v>113.20145483471367</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>110.29746248055862</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
@@ -3441,8 +3835,11 @@
       <c r="G53">
         <v>129.4204023711732</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>129.41684379694999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11</v>
       </c>
@@ -3464,8 +3861,11 @@
       <c r="G54">
         <v>101.00112831997728</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>98.411084484829516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11</v>
       </c>
@@ -3487,8 +3887,11 @@
       <c r="G55">
         <v>123.26217742237679</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>121.72642441051376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11</v>
       </c>
@@ -3510,8 +3913,11 @@
       <c r="G56">
         <v>129.61243842917585</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>123.68950504434402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -3533,8 +3939,11 @@
       <c r="G57">
         <v>123.39050744923111</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>118.94960122295691</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12</v>
       </c>
@@ -3556,8 +3965,11 @@
       <c r="G58">
         <v>93.718042339690598</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>91.565446895834384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
@@ -3579,8 +3991,11 @@
       <c r="G59">
         <v>129.63533084076042</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>123.57752977466805</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12</v>
       </c>
@@ -3602,8 +4017,11 @@
       <c r="G60">
         <v>93.669034569572887</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>90.514243889895951</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
@@ -3625,8 +4043,11 @@
       <c r="G61">
         <v>118.89855593044895</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>118.81219765640049</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13</v>
       </c>
@@ -3648,8 +4069,11 @@
       <c r="G62">
         <v>91.430762648691527</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>87.547840879048351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13</v>
       </c>
@@ -3671,8 +4095,11 @@
       <c r="G63">
         <v>119.18554082726267</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>113.06044163903123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13</v>
       </c>
@@ -3694,8 +4121,11 @@
       <c r="G64">
         <v>89.174522891120745</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>87.358022038113319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13</v>
       </c>
@@ -3717,8 +4147,11 @@
       <c r="G65">
         <v>88.572046216182528</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>87.885914962721131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13</v>
       </c>
@@ -3740,8 +4173,11 @@
       <c r="G66">
         <v>99.842980025290132</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>95.13613186535666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3763,8 +4199,11 @@
       <c r="G67">
         <v>126.14981421197237</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>120.60126522673865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>14</v>
       </c>
@@ -3786,8 +4225,11 @@
       <c r="G68">
         <v>116.99973339020313</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>116.75176984222615</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3809,8 +4251,11 @@
       <c r="G69">
         <v>104.93545960766718</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>100.89927253247276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -3832,8 +4277,11 @@
       <c r="G70">
         <v>92.571875753498944</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>90.637193224777207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
@@ -3855,8 +4303,11 @@
       <c r="G71">
         <v>126.14516122316238</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>125.45301699755436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>15</v>
       </c>
@@ -3878,8 +4329,11 @@
       <c r="G72">
         <v>120.90108696566635</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>115.29605241916872</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>15</v>
       </c>
@@ -3901,8 +4355,11 @@
       <c r="G73">
         <v>97.942554108083215</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>94.014133546030763</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3924,8 +4381,11 @@
       <c r="G74">
         <v>97.097329448505832</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>95.142060924152375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>15</v>
       </c>
@@ -3947,8 +4407,11 @@
       <c r="G75">
         <v>122.44799113667989</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>117.05599690259828</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15</v>
       </c>
@@ -3970,8 +4433,11 @@
       <c r="G76">
         <v>92.169112532787366</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>90.438204509009438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3993,8 +4459,11 @@
       <c r="G77">
         <v>117.59851749664317</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>111.50665257532437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>16</v>
       </c>
@@ -4016,8 +4485,11 @@
       <c r="G78">
         <v>104.78904796166995</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>99.327446030110835</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>16</v>
       </c>
@@ -4039,8 +4511,11 @@
       <c r="G79">
         <v>121.50731730487854</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>119.54114589914728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16</v>
       </c>
@@ -4062,8 +4537,11 @@
       <c r="G80">
         <v>104.4588398726174</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>102.94112917651734</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>16</v>
       </c>
@@ -4085,8 +4563,11 @@
       <c r="G81">
         <v>92.142766591078114</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>89.194717165930726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>17</v>
       </c>
@@ -4108,8 +4589,11 @@
       <c r="G82">
         <v>114.85842872383461</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>109.28536095350687</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>17</v>
       </c>
@@ -4131,8 +4615,11 @@
       <c r="G83">
         <v>130.39564712244083</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>127.72383682654869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>17</v>
       </c>
@@ -4154,8 +4641,11 @@
       <c r="G84">
         <v>126.52918584692787</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>121.52370845678148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>17</v>
       </c>
@@ -4177,8 +4667,11 @@
       <c r="G85">
         <v>107.01663339692681</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>105.53100973722194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>17</v>
       </c>
@@ -4200,8 +4693,11 @@
       <c r="G86">
         <v>106.45476490039135</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>104.46601121851323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>18</v>
       </c>
@@ -4223,8 +4719,11 @@
       <c r="G87">
         <v>109.43564376111587</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>103.76603672358009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>18</v>
       </c>
@@ -4246,8 +4745,11 @@
       <c r="G88">
         <v>93.831464467001567</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>91.17318495717096</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>18</v>
       </c>
@@ -4269,8 +4771,11 @@
       <c r="G89">
         <v>96.551632343140525</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>93.276796176245355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>18</v>
       </c>
@@ -4292,8 +4797,11 @@
       <c r="G90">
         <v>127.87548044037786</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>125.7927828710835</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>18</v>
       </c>
@@ -4315,8 +4823,11 @@
       <c r="G91">
         <v>100.71784681611848</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <v>100.65398139164368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19</v>
       </c>
@@ -4338,8 +4849,11 @@
       <c r="G92">
         <v>93.278748684087503</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>91.888533392834802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19</v>
       </c>
@@ -4361,8 +4875,11 @@
       <c r="G93">
         <v>119.87421716286764</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>113.78507311634644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19</v>
       </c>
@@ -4384,8 +4901,11 @@
       <c r="G94">
         <v>115.49533999005718</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>112.12003080144967</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19</v>
       </c>
@@ -4407,8 +4927,11 @@
       <c r="G95">
         <v>94.584373079120894</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>92.152867390313943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>19</v>
       </c>
@@ -4430,8 +4953,11 @@
       <c r="G96">
         <v>93.783535887681211</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <v>93.54580716934673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20</v>
       </c>
@@ -4453,8 +4979,11 @@
       <c r="G97">
         <v>102.65731896109024</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <v>102.53331372695095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -4476,8 +5005,11 @@
       <c r="G98">
         <v>120.61577204883363</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <v>118.51785667544702</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20</v>
       </c>
@@ -4499,8 +5031,11 @@
       <c r="G99">
         <v>121.03512413363561</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <v>116.36475247656482</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20</v>
       </c>
@@ -4522,8 +5057,11 @@
       <c r="G100">
         <v>121.13538002111787</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>117.62917070872221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20</v>
       </c>
@@ -4544,6 +5082,9 @@
       </c>
       <c r="G101">
         <v>130.43935306186623</v>
+      </c>
+      <c r="H101">
+        <v>124.43336820661405</v>
       </c>
     </row>
   </sheetData>
